--- a/Personal/xiemin/周计划 2018.02.26-2018.03.04.xlsx
+++ b/Personal/xiemin/周计划 2018.02.26-2018.03.04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="240" yWindow="348" windowWidth="14808" windowHeight="7776"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>计划内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,42 @@
   </si>
   <si>
     <t>8:10-9:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:10-10:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成测试，程序环境存在问题，缺少动态库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助调试GR6442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:50-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建开发环境，编译内核，在启动打印中添加自己的打印信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-23:03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +240,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +307,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -361,7 +416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,9 +453,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -483,6 +535,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,10 +575,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,30 +898,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="35.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="52.25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="22.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="15.44140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="61.88671875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
@@ -885,11 +943,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="60">
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62">
         <v>43160</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="4">
         <v>1</v>
       </c>
@@ -899,14 +957,20 @@
       <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="58"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="33"/>
+      <c r="F2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="60">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="63"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -916,14 +980,16 @@
       <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="59"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="25">
+      <c r="G3" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="61"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="63"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="24">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -935,14 +1001,16 @@
       <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="59"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="25">
+      <c r="G4" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="63"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="24">
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -951,30 +1019,42 @@
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="59"/>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="25">
+      <c r="F5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="61"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="63"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="24">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="59"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="26">
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="61"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="63"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="25">
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -984,14 +1064,16 @@
         <v>17</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="14"/>
+      <c r="G7" s="46" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="59"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="26">
+      <c r="I7" s="61"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="63"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="25">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1001,285 +1083,296 @@
         <v>16</v>
       </c>
       <c r="F8" s="11"/>
-      <c r="G8" s="14"/>
-      <c r="I8" s="59"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="37"/>
+      <c r="G8" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="61"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="63"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="59"/>
-    </row>
-    <row r="10" spans="1:9" s="12" customFormat="1">
+      <c r="F9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="61"/>
+    </row>
+    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="17"/>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="47"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="17"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="49"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="48"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="51"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="27"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="50"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="48"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="51"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="7"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="48"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="51"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="17"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="50"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="53"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="7"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="48"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="17"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="50"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="53"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="7"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="48"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="51"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="20"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="48"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="21"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="53"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="48"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="51"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="20"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="50"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="53"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="7"/>
       <c r="G19" s="15"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="48"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="52"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="20"/>
+      <c r="I19" s="50"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="7"/>
       <c r="G20" s="15"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="49"/>
-    </row>
-    <row r="21" spans="1:12" s="28" customFormat="1">
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A22" s="50"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="17"/>
+      <c r="I20" s="51"/>
+    </row>
+    <row r="21" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="15"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="47"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="51"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="17"/>
+      <c r="I22" s="49"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="53"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="15"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="48"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="51"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="17"/>
+      <c r="I23" s="50"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="53"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="15"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="48"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="51"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="17"/>
+      <c r="I24" s="50"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="53"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="20"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="7"/>
       <c r="G25" s="15"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="48"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="51"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="17"/>
+      <c r="I25" s="50"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="53"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="20"/>
+      <c r="E26" s="19"/>
       <c r="F26" s="7"/>
       <c r="G26" s="15"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="48"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="51"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="20"/>
+      <c r="I26" s="50"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="7"/>
       <c r="G27" s="15"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="48"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="51"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="17"/>
+      <c r="I27" s="50"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="53"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="20"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="7"/>
       <c r="G28" s="15"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="48"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="51"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="18"/>
+      <c r="I28" s="50"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="53"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="20"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="15"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="48"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="51"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="18"/>
+      <c r="I29" s="50"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="53"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="15"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="48"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="52"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="18"/>
+      <c r="I30" s="50"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="54"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="15"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="49"/>
-    </row>
-    <row r="32" spans="1:12" s="12" customFormat="1">
+      <c r="I31" s="51"/>
+    </row>
+    <row r="32" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="18"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A33" s="50"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="22"/>
+    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="52"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="15"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="17"/>
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="53"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -1287,10 +1380,10 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="51"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="17"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="53"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -1298,82 +1391,82 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="20"/>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="53"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="7"/>
       <c r="G36" s="14"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="53"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="51"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="20"/>
+      <c r="I36" s="55"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="53"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="19"/>
       <c r="F37" s="7"/>
       <c r="G37" s="15"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="54"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="51"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="17"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="56"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="53"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="20"/>
+      <c r="E38" s="19"/>
       <c r="F38" s="7"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="54"/>
-    </row>
-    <row r="39" spans="1:9" ht="14.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="17"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="56"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="53"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="20"/>
+      <c r="E39" s="19"/>
       <c r="F39" s="7"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="54"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="51"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="18"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="56"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="53"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="15"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="54"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="51"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="18"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="56"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="53"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="15"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="54"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="52"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="18"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="56"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="54"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="15"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="55"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="10">
